--- a/downloads/exportExcelInternalJObFilter2.xlsx
+++ b/downloads/exportExcelInternalJObFilter2.xlsx
@@ -85,7 +85,7 @@
     <t>In progressDX</t>
   </si>
   <si>
-    <t>J-651</t>
+    <t>J-664</t>
   </si>
   <si>
     <t>Installation5</t>
